--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H2">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I2">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J2">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.68484733333333</v>
+        <v>8.553891</v>
       </c>
       <c r="N2">
-        <v>35.054542</v>
+        <v>25.661673</v>
       </c>
       <c r="O2">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="P2">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="Q2">
-        <v>5.316013504401776</v>
+        <v>5.320916532283</v>
       </c>
       <c r="R2">
-        <v>47.84412153961599</v>
+        <v>47.888248790547</v>
       </c>
       <c r="S2">
-        <v>0.001077296240873128</v>
+        <v>0.001041913499698703</v>
       </c>
       <c r="T2">
-        <v>0.001077296240873127</v>
+        <v>0.001041913499698703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H3">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I3">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J3">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.499686</v>
       </c>
       <c r="O3">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="P3">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="Q3">
-        <v>2.198874159747555</v>
+        <v>3.006492170261556</v>
       </c>
       <c r="R3">
-        <v>19.789867437728</v>
+        <v>27.058429532354</v>
       </c>
       <c r="S3">
-        <v>0.0004456043733688125</v>
+        <v>0.0005887152636070253</v>
       </c>
       <c r="T3">
-        <v>0.0004456043733688124</v>
+        <v>0.0005887152636070253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H4">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I4">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J4">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.92310066666667</v>
+        <v>15.27280066666667</v>
       </c>
       <c r="N4">
-        <v>38.769302</v>
+        <v>45.818402</v>
       </c>
       <c r="O4">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="P4">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="Q4">
-        <v>5.879356032899556</v>
+        <v>9.50038965443089</v>
       </c>
       <c r="R4">
-        <v>52.914204296096</v>
+        <v>85.503506889878</v>
       </c>
       <c r="S4">
-        <v>0.00119145825114118</v>
+        <v>0.001860315637971929</v>
       </c>
       <c r="T4">
-        <v>0.00119145825114118</v>
+        <v>0.001860315637971929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4549493333333333</v>
+        <v>0.6220463333333334</v>
       </c>
       <c r="H5">
-        <v>1.364848</v>
+        <v>1.866139</v>
       </c>
       <c r="I5">
-        <v>0.004035600264670243</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="J5">
-        <v>0.004035600264670242</v>
+        <v>0.00505260120118785</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.330788</v>
+        <v>12.82087433333333</v>
       </c>
       <c r="N5">
-        <v>42.99236399999999</v>
+        <v>38.46262299999999</v>
       </c>
       <c r="O5">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="P5">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="Q5">
-        <v>6.519782446741331</v>
+        <v>7.975177869177443</v>
       </c>
       <c r="R5">
-        <v>58.67804202067199</v>
+        <v>71.77660082259699</v>
       </c>
       <c r="S5">
-        <v>0.001321241399287122</v>
+        <v>0.001561656799910193</v>
       </c>
       <c r="T5">
-        <v>0.001321241399287122</v>
+        <v>0.001561656799910193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.60581866666666</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H6">
-        <v>58.81745599999999</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I6">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J6">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.68484733333333</v>
+        <v>8.553891</v>
       </c>
       <c r="N6">
-        <v>35.054542</v>
+        <v>25.661673</v>
       </c>
       <c r="O6">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="P6">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="Q6">
-        <v>229.0909979650168</v>
+        <v>167.706035840432</v>
       </c>
       <c r="R6">
-        <v>2061.818981685152</v>
+        <v>1509.354322563888</v>
       </c>
       <c r="S6">
-        <v>0.04642555379538277</v>
+        <v>0.03283930158703851</v>
       </c>
       <c r="T6">
-        <v>0.04642555379538276</v>
+        <v>0.03283930158703851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.60581866666666</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H7">
-        <v>58.81745599999999</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I7">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J7">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>14.499686</v>
       </c>
       <c r="O7">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="P7">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="Q7">
-        <v>94.75940481320177</v>
+        <v>94.75940481320178</v>
       </c>
       <c r="R7">
-        <v>852.8346433188159</v>
+        <v>852.8346433188161</v>
       </c>
       <c r="S7">
-        <v>0.01920310219455038</v>
+        <v>0.01855528131277177</v>
       </c>
       <c r="T7">
-        <v>0.01920310219455038</v>
+        <v>0.01855528131277178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.60581866666666</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H8">
-        <v>58.81745599999999</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I8">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J8">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.92310066666667</v>
+        <v>15.27280066666667</v>
       </c>
       <c r="N8">
-        <v>38.769302</v>
+        <v>45.818402</v>
       </c>
       <c r="O8">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="P8">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="Q8">
-        <v>253.3679682817458</v>
+        <v>299.4357604028125</v>
       </c>
       <c r="R8">
-        <v>2280.311714535712</v>
+        <v>2694.921843625312</v>
       </c>
       <c r="S8">
-        <v>0.05134530970652652</v>
+        <v>0.05863391375590236</v>
       </c>
       <c r="T8">
-        <v>0.0513453097065265</v>
+        <v>0.05863391375590237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.60581866666666</v>
+        <v>19.60581866666667</v>
       </c>
       <c r="H9">
-        <v>58.81745599999999</v>
+        <v>58.81745600000001</v>
       </c>
       <c r="I9">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139157</v>
       </c>
       <c r="J9">
-        <v>0.1739122165990867</v>
+        <v>0.1592492032139158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.330788</v>
+        <v>12.82087433333333</v>
       </c>
       <c r="N9">
-        <v>42.99236399999999</v>
+        <v>38.46262299999999</v>
       </c>
       <c r="O9">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="P9">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="Q9">
-        <v>280.9668308784426</v>
+        <v>251.3637373274542</v>
       </c>
       <c r="R9">
-        <v>2528.701477905983</v>
+        <v>2262.273635947088</v>
       </c>
       <c r="S9">
-        <v>0.05693825090262705</v>
+        <v>0.0492207065582031</v>
       </c>
       <c r="T9">
-        <v>0.05693825090262704</v>
+        <v>0.0492207065582031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.381113666666667</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H10">
-        <v>4.143341</v>
+        <v>4.71134</v>
       </c>
       <c r="I10">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J10">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.68484733333333</v>
+        <v>8.553891</v>
       </c>
       <c r="N10">
-        <v>35.054542</v>
+        <v>25.661673</v>
       </c>
       <c r="O10">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="P10">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="Q10">
-        <v>16.13810234498022</v>
+        <v>13.43342960798</v>
       </c>
       <c r="R10">
-        <v>145.242921104822</v>
+        <v>120.90086647182</v>
       </c>
       <c r="S10">
-        <v>0.00327040497107041</v>
+        <v>0.002630462547361415</v>
       </c>
       <c r="T10">
-        <v>0.003270404971070409</v>
+        <v>0.002630462547361416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.381113666666667</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H11">
-        <v>4.143341</v>
+        <v>4.71134</v>
       </c>
       <c r="I11">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J11">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.499686</v>
       </c>
       <c r="O11">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="P11">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="Q11">
-        <v>6.675238165658445</v>
+        <v>7.590327848804444</v>
       </c>
       <c r="R11">
-        <v>60.07714349092601</v>
+        <v>68.31295063924</v>
       </c>
       <c r="S11">
-        <v>0.001352744679230441</v>
+        <v>0.001486297521268417</v>
       </c>
       <c r="T11">
-        <v>0.001352744679230441</v>
+        <v>0.001486297521268417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.381113666666667</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H12">
-        <v>4.143341</v>
+        <v>4.71134</v>
       </c>
       <c r="I12">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J12">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.92310066666667</v>
+        <v>15.27280066666667</v>
       </c>
       <c r="N12">
-        <v>38.769302</v>
+        <v>45.818402</v>
       </c>
       <c r="O12">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="P12">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="Q12">
-        <v>17.84827094644245</v>
+        <v>23.98511889763111</v>
       </c>
       <c r="R12">
-        <v>160.634438517982</v>
+        <v>215.86607007868</v>
       </c>
       <c r="S12">
-        <v>0.003616972601887938</v>
+        <v>0.004696638073478272</v>
       </c>
       <c r="T12">
-        <v>0.003616972601887937</v>
+        <v>0.004696638073478272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.381113666666667</v>
+        <v>1.570446666666667</v>
       </c>
       <c r="H13">
-        <v>4.143341</v>
+        <v>4.71134</v>
       </c>
       <c r="I13">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261105</v>
       </c>
       <c r="J13">
-        <v>0.01225108439637166</v>
+        <v>0.01275602843261106</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.330788</v>
+        <v>12.82087433333333</v>
       </c>
       <c r="N13">
-        <v>42.99236399999999</v>
+        <v>38.46262299999999</v>
       </c>
       <c r="O13">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="P13">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="Q13">
-        <v>19.79244716090266</v>
+        <v>20.13449936053555</v>
       </c>
       <c r="R13">
-        <v>178.132024448124</v>
+        <v>181.21049424482</v>
       </c>
       <c r="S13">
-        <v>0.004010962144182871</v>
+        <v>0.003942630290502951</v>
       </c>
       <c r="T13">
-        <v>0.004010962144182871</v>
+        <v>0.003942630290502951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.29211166666666</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H14">
-        <v>273.876335</v>
+        <v>303.947296</v>
       </c>
       <c r="I14">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J14">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.68484733333333</v>
+        <v>8.553891</v>
       </c>
       <c r="N14">
-        <v>35.054542</v>
+        <v>25.661673</v>
       </c>
       <c r="O14">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="P14">
-        <v>0.2669482035434339</v>
+        <v>0.2062132866242743</v>
       </c>
       <c r="Q14">
-        <v>1066.734387562619</v>
+        <v>866.644013242912</v>
       </c>
       <c r="R14">
-        <v>9600.609488063568</v>
+        <v>7799.796119186208</v>
       </c>
       <c r="S14">
-        <v>0.2161749485361076</v>
+        <v>0.1697016089901757</v>
       </c>
       <c r="T14">
-        <v>0.2161749485361076</v>
+        <v>0.1697016089901757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.29211166666666</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H15">
-        <v>273.876335</v>
+        <v>303.947296</v>
       </c>
       <c r="I15">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J15">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.499686</v>
       </c>
       <c r="O15">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="P15">
-        <v>0.1104183626088705</v>
+        <v>0.1165172631215423</v>
       </c>
       <c r="Q15">
-        <v>441.2356511478678</v>
+        <v>489.6822613943395</v>
       </c>
       <c r="R15">
-        <v>3971.12086033081</v>
+        <v>4407.140352549056</v>
       </c>
       <c r="S15">
-        <v>0.08941691136172085</v>
+        <v>0.09588696902389506</v>
       </c>
       <c r="T15">
-        <v>0.08941691136172084</v>
+        <v>0.09588696902389506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.29211166666666</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H16">
-        <v>273.876335</v>
+        <v>303.947296</v>
       </c>
       <c r="I16">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J16">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.92310066666667</v>
+        <v>15.27280066666667</v>
       </c>
       <c r="N16">
-        <v>38.769302</v>
+        <v>45.818402</v>
       </c>
       <c r="O16">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="P16">
-        <v>0.2952369345328449</v>
+        <v>0.3681896836691911</v>
       </c>
       <c r="Q16">
-        <v>1179.777149140908</v>
+        <v>1547.375488326777</v>
       </c>
       <c r="R16">
-        <v>10617.99434226817</v>
+        <v>13926.37939494099</v>
       </c>
       <c r="S16">
-        <v>0.2390831939732893</v>
+        <v>0.3029988162018386</v>
       </c>
       <c r="T16">
-        <v>0.2390831939732893</v>
+        <v>0.3029988162018386</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.29211166666666</v>
+        <v>101.3157653333333</v>
       </c>
       <c r="H17">
-        <v>273.876335</v>
+        <v>303.947296</v>
       </c>
       <c r="I17">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="J17">
-        <v>0.8098010987398714</v>
+        <v>0.8229421671522854</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.330788</v>
+        <v>12.82087433333333</v>
       </c>
       <c r="N17">
-        <v>42.99236399999999</v>
+        <v>38.46262299999999</v>
       </c>
       <c r="O17">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="P17">
-        <v>0.3273964993148506</v>
+        <v>0.3090797665849924</v>
       </c>
       <c r="Q17">
-        <v>1308.287898367326</v>
+        <v>1298.956695324156</v>
       </c>
       <c r="R17">
-        <v>11774.59108530594</v>
+        <v>11690.61025791741</v>
       </c>
       <c r="S17">
-        <v>0.2651260448687536</v>
+        <v>0.2543547729363762</v>
       </c>
       <c r="T17">
-        <v>0.2651260448687536</v>
+        <v>0.2543547729363762</v>
       </c>
     </row>
   </sheetData>
